--- a/HW01_Notes/1D ss satd_Hull.xlsx
+++ b/HW01_Notes/1D ss satd_Hull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8c87c2abe5887b/Workspace/Work/03_UA/03_Classwork/07_HWRS_582_GWModel/02_github/hw-rhull21/HW01_Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{0782B73B-6BEC-43BF-AA2A-643772B0639A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BCF93271-D1F8-274E-AFB2-CD5E712E36AA}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{0782B73B-6BEC-43BF-AA2A-643772B0639A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0D1DEA0D-D87A-4842-B17B-36A97E27F991}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26360" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28960" yWindow="460" windowWidth="23120" windowHeight="26640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>dz</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>K values are defined by cell.  Cells are node centered - the head value calculated is at the center of a cell.</t>
+  </si>
+  <si>
+    <t>num_cells1</t>
+  </si>
+  <si>
+    <t>num_cells2</t>
   </si>
 </sst>
 </file>
@@ -509,37 +515,37 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.700287074494092</c:v>
+                  <c:v>65.643318549861533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.489886979429521</c:v>
+                  <c:v>51.286604020253868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.368984656838911</c:v>
+                  <c:v>36.929844287980401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.247390332441963</c:v>
+                  <c:v>22.573031056717475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.12513742174583</c:v>
+                  <c:v>8.2161601553791748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.002304861632236</c:v>
+                  <c:v>0.95790852264448367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1281117964114866</c:v>
+                  <c:v>0.79833448339044077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5029497980013451</c:v>
+                  <c:v>0.6387154034465401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8774462019623694</c:v>
+                  <c:v>0.47906080795753991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2517087524620334</c:v>
+                  <c:v>0.31938195709590489</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6258543762310167</c:v>
+                  <c:v>0.15969097854795244</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -873,40 +879,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>1.6239770340404725E-3</c:v>
+                  <c:v>2.8713362900276932E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6240457251502367E-3</c:v>
+                  <c:v>2.8713429059215329E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6241804645181219E-3</c:v>
+                  <c:v>2.8713519464546933E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6243188648793895E-3</c:v>
+                  <c:v>2.8713626462525851E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6244505821392265E-3</c:v>
+                  <c:v>2.8713741802676601E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6245665120227185E-3</c:v>
+                  <c:v>2.8713962503126248E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6247310217402499E-3</c:v>
+                  <c:v>2.8723327065727721E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6251619984101414E-3</c:v>
+                  <c:v>2.8731434389902123E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6255035960389757E-3</c:v>
+                  <c:v>2.8737827188020029E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.625737449500336E-3</c:v>
+                  <c:v>2.8742193155094299E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6258543762310168E-3</c:v>
+                  <c:v>2.8744376138631437E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6258543762310168E-3</c:v>
+                  <c:v>2.8744376138631437E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,6 +1152,660 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="-4" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15817445149453405"/>
+          <c:y val="0.12626789054683082"/>
+          <c:w val="0.78173151899701854"/>
+          <c:h val="0.68899400805195399"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>zone 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'model and key plot'!$B$64:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1000000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0999999999999995E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'model and key plot'!$C$64:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.9512195121951221E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8322147651006712E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.857142857142857E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3582089552238805E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5154185022026428E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0434782608695651E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1182795698924731E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1803278688524591E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.232628398791541E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2773109243697479E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3159268929503918E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.349633251833741E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3793103448275861E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4056399132321043E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4291581108829569E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4502923976608187E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.469387755102041E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4867256637168143E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.50253807106599E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5170178282009725E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5303265940902022E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5426008968609866E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.553956834532374E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5644937586685159E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.57429718875502E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5834411384217336E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E663-B040-A04B-59D324F684BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>zone 2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'model and key plot'!$D$64:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'model and key plot'!$C$64:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.9512195121951221E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8322147651006712E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.857142857142857E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3582089552238805E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5154185022026428E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0434782608695651E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1182795698924731E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1803278688524591E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.232628398791541E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2773109243697479E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3159268929503918E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.349633251833741E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3793103448275861E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4056399132321043E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4291581108829569E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4502923976608187E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.469387755102041E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4867256637168143E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.50253807106599E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5170178282009725E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5303265940902022E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5426008968609866E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.553956834532374E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5644937586685159E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.57429718875502E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5834411384217336E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E663-B040-A04B-59D324F684BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="720580808"/>
+        <c:axId val="757513416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="720580808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>K (zone 1 and zone</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> 2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42025316455696199"/>
+              <c:y val="0.87081187128788595"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757513416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="757513416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000005E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Keq (hydraulic conductivity)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7644206687904469E-2"/>
+              <c:y val="0.19767346761212859"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="720580808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74266952067884728"/>
+          <c:y val="0.41624500804802717"/>
+          <c:w val="0.13839844048620137"/>
+          <c:h val="0.14099029886457562"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1394,6 +2054,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F462FD3-C5FE-484E-ADF4-0B7193FA29CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1748,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1814,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
@@ -1822,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
@@ -1853,7 +2551,7 @@
       </c>
       <c r="E16" s="1">
         <f>IF(D16=1,+$D$11,+IF(D16=2,+$D$12,+$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.15">
@@ -1862,43 +2560,43 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" ref="E17:E28" si="0">IF(D17=1,+$D$11,+IF(D17=2,+$D$12,+$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.15">
@@ -1907,52 +2605,52 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.15">
@@ -1960,11 +2658,11 @@
         <v>16</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
@@ -2003,15 +2701,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:T31"/>
+  <dimension ref="B3:T89"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" customWidth="1"/>
   </cols>
@@ -2081,11 +2780,11 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D7" s="7">
         <f>SUM(L9:L19)+0.5*(L8+L20)</f>
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2106,11 +2805,11 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(M9:M19)+0.5*(M8+M20)</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="F8" s="1">
         <f>F9+inputs!$D$8</f>
@@ -2122,7 +2821,7 @@
       </c>
       <c r="H8" s="1">
         <f>IF(G8=1,+inputs!$D$11,+IF(G8=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I8" s="2">
         <f>inputs!D4</f>
@@ -2161,7 +2860,7 @@
       </c>
       <c r="D9" s="7">
         <f>SUM(N9:N19)+0.5*(N8+N20)</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <f>F10+inputs!$D$8</f>
@@ -2173,26 +2872,26 @@
       </c>
       <c r="H9" s="1">
         <f>IF(G9=1,+inputs!$D$11,+IF(G9=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I9" s="1">
-        <f ca="1">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
-        <v>59.700287074494092</v>
+        <f t="shared" ref="I9:I15" ca="1" si="0">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
+        <v>65.643318549861533</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">(I8-I9)/inputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>1.6239770340404725E-3</v>
+        <v>2.8713362900276932E-4</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L20" si="0">IF($G9=1,1,0)</f>
+        <f t="shared" ref="L9:L20" si="1">IF($G9=1,1,0)</f>
         <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:M20" si="1">IF($G9=2,1,0)</f>
+        <f t="shared" ref="M9:M20" si="2">IF($G9=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N20" si="2">IF($G9=3,1,0)</f>
+        <f t="shared" ref="N9:N20" si="3">IF($G9=3,1,0)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="16">
@@ -2216,30 +2915,30 @@
       </c>
       <c r="G10" s="1">
         <f>inputs!D18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <f>IF(G10=1,+inputs!$D$11,+IF(G10=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="I10" s="1">
-        <f ca="1">(I9*2/(1/H9+1/H10)+I11*2/(1/H10+1/H11))/(2/(1/H9+1/H10)+2/(1/H10+1/H11))</f>
-        <v>45.489886979429521</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>51.286604020253868</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">(I9-I10)/inputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>1.6240457251502367E-3</v>
+        <v>2.8713429059215329E-4</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10" s="16">
@@ -2259,7 +2958,7 @@
       </c>
       <c r="C11" s="6">
         <f>SUM(D7:D9)/(D7/C7+D8/C8+D9/C9)</f>
-        <v>1.2182741116751269E-3</v>
+        <v>2.1535393818544369E-4</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" s="1">
@@ -2268,30 +2967,30 @@
       </c>
       <c r="G11" s="1">
         <f>inputs!D19</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <f>IF(G11=1,+inputs!$D$11,+IF(G11=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="I11" s="1">
-        <f ca="1">(I10*2/(1/H10+1/H11)+I12*2/(1/H11+1/H12))/(2/(1/H10+1/H11)+2/(1/H11+1/H12))</f>
-        <v>37.368984656838911</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36.929844287980401</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">(I10-I11)/inputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>1.6241804645181219E-3</v>
+        <v>2.8713519464546933E-4</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M11">
         <f>IF($G11=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q11" s="16">
@@ -2311,7 +3010,7 @@
       </c>
       <c r="C12" s="9">
         <f>C11*(I8-I20)/(F8-F20)</f>
-        <v>1.6243654822335025E-3</v>
+        <v>2.8713858424725825E-4</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="1">
@@ -2320,30 +3019,30 @@
       </c>
       <c r="G12" s="1">
         <f>inputs!D20</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <f>IF(G12=1,+inputs!$D$11,+IF(G12=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="I12" s="1">
-        <f ca="1">(I11*2/(1/H11+1/H12)+I13*2/(1/H12+1/H13))/(2/(1/H11+1/H12)+2/(1/H12+1/H13))</f>
-        <v>29.247390332441963</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.573031056717475</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">(I11-I12)/inputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>1.6243188648793895E-3</v>
+        <v>2.8713626462525851E-4</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q12" s="16">
@@ -2364,30 +3063,30 @@
       </c>
       <c r="G13" s="1">
         <f>inputs!D21</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <f>IF(G13=1,+inputs!$D$11,+IF(G13=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="I13" s="1">
-        <f ca="1">(I12*2/(1/H12+1/H13)+I14*2/(1/H13+1/H14))/(2/(1/H12+1/H13)+2/(1/H13+1/H14))</f>
-        <v>21.12513742174583</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2161601553791748</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">(I12-I13)/inputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>1.6244505821392265E-3</v>
+        <v>2.8713741802676601E-4</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q13" s="16">
@@ -2412,26 +3111,26 @@
       </c>
       <c r="H14" s="1">
         <f>IF(G14=1,+inputs!$D$11,+IF(G14=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>1E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I14" s="1">
-        <f ca="1">(I13*2/(1/H13+1/H14)+I15*2/(1/H14+1/H15))/(2/(1/H13+1/H14)+2/(1/H14+1/H15))</f>
-        <v>13.002304861632236</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95790852264448367</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">(I13-I14)/inputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>1.6245665120227185E-3</v>
+        <v>2.8713962503126248E-4</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q14" s="16">
@@ -2446,37 +3145,44 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <f>SUM(D7:D9)/(D7/C7+D8/C8)</f>
+        <v>2.1535393818544369E-4</v>
+      </c>
       <c r="F15" s="1">
         <f>F16+inputs!$D$8</f>
         <v>25</v>
       </c>
       <c r="G15" s="1">
         <f>inputs!D23</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
         <f>IF(G15=1,+inputs!$D$11,+IF(G15=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I15" s="1">
-        <f ca="1">(I14*2/(1/H14+1/H15)+I16*2/(1/H15+1/H16))/(2/(1/H14+1/H15)+2/(1/H15+1/H16))</f>
-        <v>8.1281117964114866</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79833448339044077</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">(I14-I15)/inputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>1.6247310217402499E-3</v>
+        <v>2.8723327065727721E-4</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="M15">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q15" s="16">
         <v>8</v>
@@ -2496,31 +3202,31 @@
       </c>
       <c r="G16" s="1">
         <f>inputs!D24</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
         <f>IF(G16=1,+inputs!$D$11,+IF(G16=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I9:I19" ca="1" si="3">(I15*2/(1/H15+1/H16)+I17*2/(1/H16+1/H17))/(2/(1/H15+1/H16)+2/(1/H16+1/H17))</f>
-        <v>6.5029497980013451</v>
+        <f t="shared" ref="I16:I19" ca="1" si="4">(I15*2/(1/H15+1/H16)+I17*2/(1/H16+1/H17))/(2/(1/H15+1/H16)+2/(1/H16+1/H17))</f>
+        <v>0.6387154034465401</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">(I15-I16)/inputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>1.6251619984101414E-3</v>
+        <v>2.8731434389902123E-4</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="M16">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q16" s="16">
         <v>9</v>
@@ -2540,31 +3246,31 @@
       </c>
       <c r="G17" s="1">
         <f>inputs!D25</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
         <f>IF(G17=1,+inputs!$D$11,+IF(G17=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.8774462019623694</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.47906080795753991</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">(I16-I17)/inputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>1.6255035960389757E-3</v>
+        <v>2.8737827188020029E-4</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="M17">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q17" s="16">
         <v>10</v>
@@ -2584,31 +3290,31 @@
       </c>
       <c r="G18" s="1">
         <f>inputs!D26</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
         <f>IF(G18=1,+inputs!$D$11,+IF(G18=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.2517087524620334</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.31938195709590489</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">(I17-I18)/inputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>1.625737449500336E-3</v>
+        <v>2.8742193155094299E-4</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18">
+      <c r="M18">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q18" s="16">
         <v>11</v>
@@ -2628,31 +3334,31 @@
       </c>
       <c r="G19" s="1">
         <f>inputs!D27</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
         <f>IF(G19=1,+inputs!$D$11,+IF(G19=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.6258543762310167</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15969097854795244</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">(I18-I19)/inputs!$D$8*2/(1/H18+1/H19)</f>
-        <v>1.6258543762310168E-3</v>
+        <v>2.8744376138631437E-4</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="M19">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q19" s="16">
         <v>12</v>
@@ -2672,11 +3378,11 @@
       </c>
       <c r="G20" s="1">
         <f>inputs!D28</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
         <f>IF(G20=1,+inputs!$D$11,+IF(G20=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I20" s="2">
         <f>inputs!D5</f>
@@ -2684,19 +3390,19 @@
       </c>
       <c r="J20" s="1">
         <f ca="1">(I19-I20)/inputs!$D$8*2/(1/H19+1/H20)</f>
-        <v>1.6258543762310168E-3</v>
+        <v>2.8744376138631437E-4</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="M20">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q20" s="19">
         <v>13</v>
@@ -2711,6 +3417,402 @@
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.15">
       <c r="P31" s="11"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B60">
+        <v>5.5</v>
+      </c>
+      <c r="C60">
+        <v>6.5</v>
+      </c>
+      <c r="D60">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <v>1E-4</v>
+      </c>
+      <c r="C64">
+        <f>SUM($B$60:$C$60)/($B$60/B64+$C$60/$D$60)</f>
+        <v>1.9512195121951221E-4</v>
+      </c>
+      <c r="D64">
+        <f>D$60</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <f>B64+0.0002</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:C89" si="5">SUM($B$60:$C$60)/($B$60/B65+$C$60/$D$60)</f>
+        <v>4.8322147651006712E-4</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:D89" si="6">D$60</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66">
+        <f t="shared" ref="B66:B89" si="7">B65+0.0002</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="5"/>
+        <v>6.857142857142857E-4</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>8.3582089552238805E-4</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B68">
+        <f t="shared" si="7"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>9.5154185022026428E-4</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69">
+        <f t="shared" si="7"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>1.0434782608695651E-3</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70">
+        <f t="shared" si="7"/>
+        <v>1.3000000000000002E-3</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>1.1182795698924731E-3</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71">
+        <f t="shared" si="7"/>
+        <v>1.5000000000000002E-3</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>1.1803278688524591E-3</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B72">
+        <f t="shared" si="7"/>
+        <v>1.7000000000000003E-3</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>1.232628398791541E-3</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B73">
+        <f t="shared" si="7"/>
+        <v>1.9000000000000004E-3</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>1.2773109243697479E-3</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74">
+        <f t="shared" si="7"/>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>1.3159268929503918E-3</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B75">
+        <f t="shared" si="7"/>
+        <v>2.3000000000000004E-3</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>1.349633251833741E-3</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B76">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>1.3793103448275861E-3</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B77">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000006E-3</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>1.4056399132321043E-3</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B78">
+        <f t="shared" si="7"/>
+        <v>2.9000000000000007E-3</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>1.4291581108829569E-3</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B79">
+        <f t="shared" si="7"/>
+        <v>3.1000000000000008E-3</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>1.4502923976608187E-3</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B80">
+        <f t="shared" si="7"/>
+        <v>3.3000000000000008E-3</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>1.469387755102041E-3</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <f t="shared" si="7"/>
+        <v>3.5000000000000009E-3</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>1.4867256637168143E-3</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B82">
+        <f t="shared" si="7"/>
+        <v>3.700000000000001E-3</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>1.50253807106599E-3</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B83">
+        <f t="shared" si="7"/>
+        <v>3.9000000000000011E-3</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>1.5170178282009725E-3</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B84">
+        <f t="shared" si="7"/>
+        <v>4.1000000000000012E-3</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>1.5303265940902022E-3</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B85">
+        <f t="shared" si="7"/>
+        <v>4.3000000000000009E-3</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>1.5426008968609866E-3</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B86">
+        <f t="shared" si="7"/>
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>1.553956834532374E-3</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B87">
+        <f t="shared" si="7"/>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>1.5644937586685159E-3</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B88">
+        <f t="shared" si="7"/>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>1.57429718875502E-3</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B89">
+        <f t="shared" si="7"/>
+        <v>5.0999999999999995E-3</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>1.5834411384217336E-3</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HW01_Notes/1D ss satd_Hull.xlsx
+++ b/HW01_Notes/1D ss satd_Hull.xlsx
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{0782B73B-6BEC-43BF-AA2A-643772B0639A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0D1DEA0D-D87A-4842-B17B-36A97E27F991}"/>
   <bookViews>
-    <workbookView xWindow="28960" yWindow="460" windowWidth="23120" windowHeight="26640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26320" yWindow="460" windowWidth="24580" windowHeight="26640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
     <sheet name="model and key plot" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" calcCompleted="0"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -515,37 +515,37 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.643318549861533</c:v>
+                  <c:v>65.643070881709662</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.286604020253868</c:v>
+                  <c:v>51.286141750859414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.929844287980401</c:v>
+                  <c:v>36.929212602846221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.573031056717475</c:v>
+                  <c:v>22.572283434520045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2161601553791748</c:v>
+                  <c:v>8.2153542442971865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95790852264448367</c:v>
+                  <c:v>0.95712891028014735</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79833448339044077</c:v>
+                  <c:v>0.79760745461423632</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6387154034465401</c:v>
+                  <c:v>0.63808598184687382</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47906080795753991</c:v>
+                  <c:v>0.47856449559465197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31938195709590489</c:v>
+                  <c:v>0.31904300013293346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15969097854795244</c:v>
+                  <c:v>0.15952150006646673</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -879,40 +879,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>2.8713362900276932E-4</c:v>
+                  <c:v>2.8713858236580677E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8713429059215329E-4</c:v>
+                  <c:v>2.8713858261700492E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8713519464546933E-4</c:v>
+                  <c:v>2.8713858296026387E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8713626462525851E-4</c:v>
+                  <c:v>2.8713858336652353E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8713741802676601E-4</c:v>
+                  <c:v>2.8713858380445718E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8713962503126248E-4</c:v>
+                  <c:v>2.8713858464243233E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8723327065727721E-4</c:v>
+                  <c:v>2.8713862019863983E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8731434389902123E-4</c:v>
+                  <c:v>2.8713865098125251E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8737827188020029E-4</c:v>
+                  <c:v>2.8713867525399935E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8742193155094299E-4</c:v>
+                  <c:v>2.8713869183109327E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8744376138631437E-4</c:v>
+                  <c:v>2.8713870011964015E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8744376138631437E-4</c:v>
+                  <c:v>2.8713870011964015E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2876,11 +2876,11 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I15" ca="1" si="0">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
-        <v>65.643318549861533</v>
+        <v>65.643070881709662</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">(I8-I9)/inputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>2.8713362900276932E-4</v>
+        <v>2.8713858236580677E-4</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L20" si="1">IF($G9=1,1,0)</f>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51.286604020253868</v>
+        <v>51.286141750859414</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">(I9-I10)/inputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>2.8713429059215329E-4</v>
+        <v>2.8713858261700492E-4</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -2975,11 +2975,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36.929844287980401</v>
+        <v>36.929212602846221</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">(I10-I11)/inputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>2.8713519464546933E-4</v>
+        <v>2.8713858296026387E-4</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -3027,11 +3027,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.573031056717475</v>
+        <v>22.572283434520045</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">(I11-I12)/inputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>2.8713626462525851E-4</v>
+        <v>2.8713858336652353E-4</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
@@ -3071,11 +3071,11 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2161601553791748</v>
+        <v>8.2153542442971865</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">(I12-I13)/inputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>2.8713741802676601E-4</v>
+        <v>2.8713858380445718E-4</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -3115,11 +3115,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95790852264448367</v>
+        <v>0.95712891028014735</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">(I13-I14)/inputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>2.8713962503126248E-4</v>
+        <v>2.8713858464243233E-4</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
@@ -3166,11 +3166,11 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79833448339044077</v>
+        <v>0.79760745461423632</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">(I14-I15)/inputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>2.8723327065727721E-4</v>
+        <v>2.8713862019863983E-4</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
@@ -3210,11 +3210,11 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ref="I16:I19" ca="1" si="4">(I15*2/(1/H15+1/H16)+I17*2/(1/H16+1/H17))/(2/(1/H15+1/H16)+2/(1/H16+1/H17))</f>
-        <v>0.6387154034465401</v>
+        <v>0.63808598184687382</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">(I15-I16)/inputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>2.8731434389902123E-4</v>
+        <v>2.8713865098125251E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
@@ -3254,11 +3254,11 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47906080795753991</v>
+        <v>0.47856449559465197</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">(I16-I17)/inputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>2.8737827188020029E-4</v>
+        <v>2.8713867525399935E-4</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
@@ -3298,11 +3298,11 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31938195709590489</v>
+        <v>0.31904300013293346</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">(I17-I18)/inputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>2.8742193155094299E-4</v>
+        <v>2.8713869183109327E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15969097854795244</v>
+        <v>0.15952150006646673</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">(I18-I19)/inputs!$D$8*2/(1/H18+1/H19)</f>
-        <v>2.8744376138631437E-4</v>
+        <v>2.8713870011964015E-4</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="J20" s="1">
         <f ca="1">(I19-I20)/inputs!$D$8*2/(1/H19+1/H20)</f>
-        <v>2.8744376138631437E-4</v>
+        <v>2.8713870011964015E-4</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>

--- a/HW01_Notes/1D ss satd_Hull.xlsx
+++ b/HW01_Notes/1D ss satd_Hull.xlsx
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{0782B73B-6BEC-43BF-AA2A-643772B0639A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0D1DEA0D-D87A-4842-B17B-36A97E27F991}"/>
   <bookViews>
-    <workbookView xWindow="26320" yWindow="460" windowWidth="24580" windowHeight="26640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="24580" windowHeight="26640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
     <sheet name="model and key plot" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2704,7 +2704,7 @@
   <dimension ref="B3:T89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
